--- a/document/基本設計書/基本設計書.xlsx
+++ b/document/基本設計書/基本設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\azusato\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\azusato\document\基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234FA171-29AE-4305-93D0-AA0B217D2961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A97030-3653-4C13-B22D-6E001A895E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="構成図" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>Server</t>
     <phoneticPr fontId="1"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PostgreDatabase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・Build</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -127,56 +123,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(Aws)無料期間だけ使う予定ですので、ゆくゆくへは普通のpostgresqlに変更予定。</t>
-    <rPh sb="5" eb="9">
-      <t>ムリョウキカン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PC</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>モバイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コンテンツ：動画</t>
-    <rPh sb="6" eb="8">
-      <t>ドウガ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>画面1(メイン)</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ただ、データベース要らない気がします。</t>
-    <rPh sb="9" eb="10">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -508,46 +465,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>home</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>celebration</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>member</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>言語</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>key</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>header</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>interceptor =&gt; posthandle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ja</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ko</t>
+    <t>Mysql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(Aws)無料期間だけ使う予定ですので、ゆくゆくへは普通のmysqlに変更予定。</t>
+    <rPh sb="5" eb="9">
+      <t>ムリョウキカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヨテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1580,16 +1520,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190443</xdr:colOff>
+      <xdr:colOff>504768</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190452</xdr:rowOff>
+      <xdr:rowOff>180927</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1612,7 +1552,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="1000125"/>
+          <a:off x="4848225" y="1704975"/>
           <a:ext cx="457143" cy="380952"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1624,16 +1564,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647672</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276197</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1650,8 +1590,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4762472" y="352425"/>
-          <a:ext cx="819178" cy="647700"/>
+          <a:off x="5076797" y="581025"/>
+          <a:ext cx="819178" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1936,16 +1876,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>323801</xdr:colOff>
+      <xdr:colOff>561926</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>199970</xdr:rowOff>
+      <xdr:rowOff>219020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1968,7 +1908,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4048125" y="990600"/>
+          <a:off x="4286250" y="1724025"/>
           <a:ext cx="390476" cy="399995"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2083,9 +2023,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>128563</xdr:colOff>
+      <xdr:colOff>366688</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2104,7 +2044,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4143375" y="419100"/>
-          <a:ext cx="99988" cy="809625"/>
+          <a:ext cx="338113" cy="1304925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2133,112 +2073,12 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>28523</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4A323E-16F7-4333-9D43-24BDC081A70E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5095875" y="1019175"/>
-          <a:ext cx="419048" cy="361905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>12</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26E0E40-889C-48CA-99EA-9397CDCE4213}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5267325" y="1400175"/>
-          <a:ext cx="3048000" cy="590550"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
@@ -2246,496 +2086,163 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Rectangle 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C229F2CC-295D-487A-B47C-B943AC817D84}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9D409DE-4518-61EB-586F-057CF3A128BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8248649" y="1857375"/>
-          <a:ext cx="2047875" cy="333375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログインモーダル呼び出し</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>600027</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161883</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{089AF34A-577B-47AF-BDAE-347A320E3A6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5705475" y="1019175"/>
-          <a:ext cx="380952" cy="333333"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409551</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161883</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25906AE6-9738-46D7-A53F-CF3DB752BE7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="1"/>
-          <a:endCxn id="46" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5895951" y="1590633"/>
-          <a:ext cx="1914548" cy="1919330"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="Rectangle 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6832228F-C72C-460B-A9C6-EE2C82E17AC3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7810499" y="3086100"/>
-          <a:ext cx="2619376" cy="847726"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>&amp;&amp;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>管理者の場合のみ表示</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-          </a:br>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリックしドロップダウンのメニューが現れる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>486716</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142781</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA05B7A7-3E50-4264-A748-C674AD4DD318}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="1038225"/>
-          <a:ext cx="1210616" cy="295181"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>567208</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92743D28-36F7-4836-ACE6-95EB0E027B2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="62" idx="2"/>
-          <a:endCxn id="57" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2276475" y="504825"/>
-          <a:ext cx="1033933" cy="771525"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Rectangle 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A99A3B-CAB0-424B-B352-221D9B624784}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1781175" y="152400"/>
-          <a:ext cx="990600" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>音楽再生</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>131325</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85654</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84B9C245-2075-4465-97EB-A8A21657DAE2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13982701" y="1428750"/>
-          <a:ext cx="550424" cy="323779"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+          <a:off x="5562600" y="1752600"/>
+          <a:ext cx="4733924" cy="1390650"/>
+          <a:chOff x="5562600" y="1752600"/>
+          <a:chExt cx="4733924" cy="1390650"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="42" name="Picture 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4A323E-16F7-4333-9D43-24BDC081A70E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5562600" y="1752600"/>
+            <a:ext cx="419048" cy="361905"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F26E0E40-889C-48CA-99EA-9397CDCE4213}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="42" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="5772124" y="2114505"/>
+            <a:ext cx="2543201" cy="828720"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="Rectangle 44">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C229F2CC-295D-487A-B47C-B943AC817D84}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8248649" y="2809875"/>
+            <a:ext cx="2047875" cy="333375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+              <a:t>ログインモーダル呼び出し</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -5341,8 +4848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5352,13 +4859,13 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
       <c r="N2" s="2"/>
       <c r="O2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
@@ -5372,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.4">
@@ -5386,7 +4893,7 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.4">
@@ -5394,10 +4901,7 @@
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5405,7 +4909,7 @@
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5413,7 +4917,7 @@
         <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -5421,7 +4925,7 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.4">
@@ -5443,103 +4947,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE11843-A251-4FD0-A93F-C7D2793D5A11}">
-  <dimension ref="B3:V12"/>
+  <dimension ref="B3:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="3" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="M5" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" t="s">
-        <v>64</v>
-      </c>
       <c r="V5" s="3"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="M6" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" t="s">
-        <v>59</v>
-      </c>
       <c r="V6" s="3"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="S7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="N8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="M9" t="s">
-        <v>62</v>
-      </c>
-      <c r="N9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="N10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="N11" t="s">
-        <v>67</v>
-      </c>
-      <c r="O11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="N12" t="s">
-        <v>68</v>
-      </c>
-      <c r="O12" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -5555,7 +5001,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5566,44 +5012,44 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B4" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="150" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="93.75" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5617,7 +5063,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5641,32 +5087,32 @@
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.4">
@@ -5674,62 +5120,62 @@
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B8" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N11" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.4">
       <c r="N16" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="14:24" x14ac:dyDescent="0.4">
       <c r="N18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="14:24" x14ac:dyDescent="0.4">
       <c r="W23" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -5755,17 +5201,17 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
       <c r="J3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="J11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
